--- a/data/pca/factorExposure/factorExposure_2012-10-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-31.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00159583413975256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002146123523982724</v>
+      </c>
+      <c r="C2">
+        <v>0.02945827835246865</v>
+      </c>
+      <c r="D2">
+        <v>0.006268657631036197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001169458685242536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006854315222828106</v>
+      </c>
+      <c r="C4">
+        <v>0.08309483108074293</v>
+      </c>
+      <c r="D4">
+        <v>0.07499666846538265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.00111356754388981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01359054094729619</v>
+      </c>
+      <c r="C6">
+        <v>0.1128149171550463</v>
+      </c>
+      <c r="D6">
+        <v>0.02389079279876231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001970525058667882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.0047116899710782</v>
+      </c>
+      <c r="C7">
+        <v>0.05779619475392667</v>
+      </c>
+      <c r="D7">
+        <v>0.03203641688780889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>6.637517014478886e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005664434995612453</v>
+      </c>
+      <c r="C8">
+        <v>0.03520849970663428</v>
+      </c>
+      <c r="D8">
+        <v>0.04194227255563939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003661162410857998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.00502820522622392</v>
+      </c>
+      <c r="C9">
+        <v>0.07105387862583987</v>
+      </c>
+      <c r="D9">
+        <v>0.07528679228539906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001896921864803207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.006003213302212955</v>
+      </c>
+      <c r="C10">
+        <v>0.0570975606659331</v>
+      </c>
+      <c r="D10">
+        <v>-0.1967657590631911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004230314104419736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005521428080033634</v>
+      </c>
+      <c r="C11">
+        <v>0.07985238245400388</v>
+      </c>
+      <c r="D11">
+        <v>0.06396987350590015</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001551382191363317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003963230708071811</v>
+      </c>
+      <c r="C12">
+        <v>0.06449024756572633</v>
+      </c>
+      <c r="D12">
+        <v>0.05025226037134087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.001887312088493215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008938228739750359</v>
+      </c>
+      <c r="C13">
+        <v>0.06954682260658611</v>
+      </c>
+      <c r="D13">
+        <v>0.05698643165409867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002435327129154774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0009629871918340496</v>
+      </c>
+      <c r="C14">
+        <v>0.04369774615383048</v>
+      </c>
+      <c r="D14">
+        <v>0.007306071591851747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009061665874663933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005894288373346356</v>
+      </c>
+      <c r="C15">
+        <v>0.0409644114467485</v>
+      </c>
+      <c r="D15">
+        <v>0.02946608521175508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002257618633664529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004917888190138308</v>
+      </c>
+      <c r="C16">
+        <v>0.06437055718706379</v>
+      </c>
+      <c r="D16">
+        <v>0.05592339082378299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0001726645259214132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008700039248937235</v>
+      </c>
+      <c r="C20">
+        <v>0.06502217610982554</v>
+      </c>
+      <c r="D20">
+        <v>0.04740515105860928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005952681220495053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009670134753187131</v>
+      </c>
+      <c r="C21">
+        <v>0.02066792147340827</v>
+      </c>
+      <c r="D21">
+        <v>0.04227861525757781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01696743015980483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006694984935954643</v>
+      </c>
+      <c r="C22">
+        <v>0.08965043293705646</v>
+      </c>
+      <c r="D22">
+        <v>0.1177508449960445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01715884524647628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006509830040014004</v>
+      </c>
+      <c r="C23">
+        <v>0.09010003459697248</v>
+      </c>
+      <c r="D23">
+        <v>0.1188309585281323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003367618333843374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005461124816348078</v>
+      </c>
+      <c r="C24">
+        <v>0.07599324127060446</v>
+      </c>
+      <c r="D24">
+        <v>0.06744703168490325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.005541307919075604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003164283070475549</v>
+      </c>
+      <c r="C25">
+        <v>0.07837864898590116</v>
+      </c>
+      <c r="D25">
+        <v>0.06558504342031692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003928880075227501</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003553034241140808</v>
+      </c>
+      <c r="C26">
+        <v>0.03913125764902135</v>
+      </c>
+      <c r="D26">
+        <v>0.02493939321557015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.008419950245686455</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001205390986981968</v>
+      </c>
+      <c r="C28">
+        <v>0.1039554903223597</v>
+      </c>
+      <c r="D28">
+        <v>-0.3231733205225262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001229382139758658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002693343708667078</v>
+      </c>
+      <c r="C29">
+        <v>0.04930104104801915</v>
+      </c>
+      <c r="D29">
+        <v>0.00780642049260138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004767013121162778</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009952480653147775</v>
+      </c>
+      <c r="C30">
+        <v>0.1418651136561408</v>
+      </c>
+      <c r="D30">
+        <v>0.1078315719080971</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0004919136646046912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006304421313577098</v>
+      </c>
+      <c r="C31">
+        <v>0.04433703795024374</v>
+      </c>
+      <c r="D31">
+        <v>0.02970672472255904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.000716228574261769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003691759441165803</v>
+      </c>
+      <c r="C32">
+        <v>0.04012753479625501</v>
+      </c>
+      <c r="D32">
+        <v>0.02638322918721443</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003345458106856053</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008613746764935495</v>
+      </c>
+      <c r="C33">
+        <v>0.08692096501612141</v>
+      </c>
+      <c r="D33">
+        <v>0.06670558798514913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005020828373375361</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004015472923887813</v>
+      </c>
+      <c r="C34">
+        <v>0.05784306892569428</v>
+      </c>
+      <c r="D34">
+        <v>0.05702737390792593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.0003974037749354844</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005125538529520616</v>
+      </c>
+      <c r="C35">
+        <v>0.04099154238893934</v>
+      </c>
+      <c r="D35">
+        <v>0.01894055601863743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004442779552759322</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001100384262275626</v>
+      </c>
+      <c r="C36">
+        <v>0.02516212543721759</v>
+      </c>
+      <c r="D36">
+        <v>0.02499599255911331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001019787127975008</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008947397733982201</v>
+      </c>
+      <c r="C38">
+        <v>0.03634735127283198</v>
+      </c>
+      <c r="D38">
+        <v>0.01549403364826247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01306720527793896</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001066794865729961</v>
+      </c>
+      <c r="C39">
+        <v>0.114532261495</v>
+      </c>
+      <c r="D39">
+        <v>0.07874271755417271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009054592284587442</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003669326059681825</v>
+      </c>
+      <c r="C40">
+        <v>0.09143446447215786</v>
+      </c>
+      <c r="D40">
+        <v>0.01502179727445684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008148313700068186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007107619412176031</v>
+      </c>
+      <c r="C41">
+        <v>0.03791054637154435</v>
+      </c>
+      <c r="D41">
+        <v>0.03781404956383649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00361263661808624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003886042946900805</v>
+      </c>
+      <c r="C43">
+        <v>0.05323040594841063</v>
+      </c>
+      <c r="D43">
+        <v>0.02590927378413648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01543218792991748</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002916813732864308</v>
+      </c>
+      <c r="C44">
+        <v>0.1065151601638653</v>
+      </c>
+      <c r="D44">
+        <v>0.06630683808444268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.000809155686287048</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002144376275187581</v>
+      </c>
+      <c r="C46">
+        <v>0.0332337574592226</v>
+      </c>
+      <c r="D46">
+        <v>0.03270135905987703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.00199226415958679</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.00221804634120706</v>
+      </c>
+      <c r="C47">
+        <v>0.03621315735010758</v>
+      </c>
+      <c r="D47">
+        <v>0.01997159935493906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004155845398507873</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006668059522638821</v>
+      </c>
+      <c r="C48">
+        <v>0.03012259796489541</v>
+      </c>
+      <c r="D48">
+        <v>0.03603964579468364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01171639333208552</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01713317745183747</v>
+      </c>
+      <c r="C49">
+        <v>0.1883779745135711</v>
+      </c>
+      <c r="D49">
+        <v>0.007662715337089571</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.002085670330170683</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003582817929443091</v>
+      </c>
+      <c r="C50">
+        <v>0.04300308703416295</v>
+      </c>
+      <c r="D50">
+        <v>0.03737652316489212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.27944850670871e-06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004769435132634271</v>
+      </c>
+      <c r="C51">
+        <v>0.02569780865511347</v>
+      </c>
+      <c r="D51">
+        <v>0.02183530380554516</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0005591660212277316</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02103502372230804</v>
+      </c>
+      <c r="C53">
+        <v>0.1698416094649965</v>
+      </c>
+      <c r="D53">
+        <v>0.02544779796639153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001793834108193243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008794462748526058</v>
+      </c>
+      <c r="C54">
+        <v>0.05431014673661643</v>
+      </c>
+      <c r="D54">
+        <v>0.04434683176584672</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.005324152605053574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009484424253127084</v>
+      </c>
+      <c r="C55">
+        <v>0.1086524988425371</v>
+      </c>
+      <c r="D55">
+        <v>0.03967530938446348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001312838684878339</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01993334512863634</v>
+      </c>
+      <c r="C56">
+        <v>0.1762128125114268</v>
+      </c>
+      <c r="D56">
+        <v>0.01514352799979973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.009624293348437347</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01945271173425768</v>
+      </c>
+      <c r="C58">
+        <v>0.1090899129921954</v>
+      </c>
+      <c r="D58">
+        <v>0.06413058230953003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009897601820769037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009979721071650478</v>
+      </c>
+      <c r="C59">
+        <v>0.1641192515341166</v>
+      </c>
+      <c r="D59">
+        <v>-0.3366874649928642</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005023251932240904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02522835617487819</v>
+      </c>
+      <c r="C60">
+        <v>0.225000248445447</v>
+      </c>
+      <c r="D60">
+        <v>0.02333220638354301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01481359696096818</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001824682910154654</v>
+      </c>
+      <c r="C61">
+        <v>0.09466537948862422</v>
+      </c>
+      <c r="D61">
+        <v>0.05769116698080732</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1587992037763147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1484586632208789</v>
+      </c>
+      <c r="C62">
+        <v>0.09647244680892296</v>
+      </c>
+      <c r="D62">
+        <v>0.02783518657402603</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007799641049371589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006681387015804826</v>
+      </c>
+      <c r="C63">
+        <v>0.05441375231595415</v>
+      </c>
+      <c r="D63">
+        <v>0.02944679579667103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-4.608953751575843e-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01573729102993251</v>
+      </c>
+      <c r="C64">
+        <v>0.1043767581166681</v>
+      </c>
+      <c r="D64">
+        <v>0.05800266582059893</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.001986488862789977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01788631008108564</v>
+      </c>
+      <c r="C65">
+        <v>0.1237501135421542</v>
+      </c>
+      <c r="D65">
+        <v>0.0212766968175516</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007138572091506271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01325389916567028</v>
+      </c>
+      <c r="C66">
+        <v>0.1593618739060706</v>
+      </c>
+      <c r="D66">
+        <v>0.1124663986488593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002960815816337922</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01549433407371445</v>
+      </c>
+      <c r="C67">
+        <v>0.06774349349643852</v>
+      </c>
+      <c r="D67">
+        <v>0.02778393436111066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007933498136638345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.00102410746331117</v>
+      </c>
+      <c r="C68">
+        <v>0.08682685274032954</v>
+      </c>
+      <c r="D68">
+        <v>-0.2585616343705951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00236799546767362</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006077080283036966</v>
+      </c>
+      <c r="C69">
+        <v>0.05131362730148888</v>
+      </c>
+      <c r="D69">
+        <v>0.03805906851628881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001432535087521682</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001891941353261129</v>
+      </c>
+      <c r="C70">
+        <v>0.004412893383267634</v>
+      </c>
+      <c r="D70">
+        <v>0.002135538753902004</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.002263370807591422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005619909526557028</v>
+      </c>
+      <c r="C71">
+        <v>0.09177321770368174</v>
+      </c>
+      <c r="D71">
+        <v>-0.3045392795093701</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.005358962708066585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01665316583460099</v>
+      </c>
+      <c r="C72">
+        <v>0.1554801555027199</v>
+      </c>
+      <c r="D72">
+        <v>0.0146878726028462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01462295744418589</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03162421918321546</v>
+      </c>
+      <c r="C73">
+        <v>0.2829170224088116</v>
+      </c>
+      <c r="D73">
+        <v>0.05473128838018339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.007286114544983418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001882436852834168</v>
+      </c>
+      <c r="C74">
+        <v>0.1025691790296316</v>
+      </c>
+      <c r="D74">
+        <v>0.03612225213184932</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004569795211388787</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01114411435647372</v>
+      </c>
+      <c r="C75">
+        <v>0.1228819383240013</v>
+      </c>
+      <c r="D75">
+        <v>0.02250621658007611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.005374305384970493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02237177330150176</v>
+      </c>
+      <c r="C76">
+        <v>0.148433724013197</v>
+      </c>
+      <c r="D76">
+        <v>0.05711555394824095</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.003014574340426148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02243447576751318</v>
+      </c>
+      <c r="C77">
+        <v>0.1136769890752604</v>
+      </c>
+      <c r="D77">
+        <v>0.05196600910758786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.000620024096315963</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01491402396623119</v>
+      </c>
+      <c r="C78">
+        <v>0.09636576771538888</v>
+      </c>
+      <c r="D78">
+        <v>0.07636918889178163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02156586072711482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03806124952639602</v>
+      </c>
+      <c r="C79">
+        <v>0.1566867959997748</v>
+      </c>
+      <c r="D79">
+        <v>0.03292945239590477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006299307368135351</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.010172277946719</v>
+      </c>
+      <c r="C80">
+        <v>0.03917421894711058</v>
+      </c>
+      <c r="D80">
+        <v>0.0299765150029838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0004887768047641702</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01567893615394846</v>
+      </c>
+      <c r="C81">
+        <v>0.1297630003490786</v>
+      </c>
+      <c r="D81">
+        <v>0.03834346572622895</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.002016695210330752</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0200182773201006</v>
+      </c>
+      <c r="C82">
+        <v>0.1390455418726356</v>
+      </c>
+      <c r="D82">
+        <v>0.04237807246869299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006353180458679664</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01052459778821068</v>
+      </c>
+      <c r="C83">
+        <v>0.05930361392867194</v>
+      </c>
+      <c r="D83">
+        <v>0.04870013870579586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01331132245611067</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01166217593598256</v>
+      </c>
+      <c r="C84">
+        <v>0.03718356299542536</v>
+      </c>
+      <c r="D84">
+        <v>-0.005487456045510426</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01270430301978307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02904049180087193</v>
+      </c>
+      <c r="C85">
+        <v>0.1246792338014734</v>
+      </c>
+      <c r="D85">
+        <v>0.04162846150135108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002487188560127199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004564369677128129</v>
+      </c>
+      <c r="C86">
+        <v>0.04963507334034718</v>
+      </c>
+      <c r="D86">
+        <v>0.03076093206520962</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003932130364075246</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01106581477230495</v>
+      </c>
+      <c r="C87">
+        <v>0.1287635086746962</v>
+      </c>
+      <c r="D87">
+        <v>0.07255514070461182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01146770427472211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002722336269279139</v>
+      </c>
+      <c r="C88">
+        <v>0.06354948258165648</v>
+      </c>
+      <c r="D88">
+        <v>0.02482295887133091</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.0158845050774598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001686421664226089</v>
+      </c>
+      <c r="C89">
+        <v>0.1397058964948498</v>
+      </c>
+      <c r="D89">
+        <v>-0.3204517487871401</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004525926974771609</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006546017144707299</v>
+      </c>
+      <c r="C90">
+        <v>0.1195720960356137</v>
+      </c>
+      <c r="D90">
+        <v>-0.3144184457426402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001684928136677411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0102929518332828</v>
+      </c>
+      <c r="C91">
+        <v>0.09989544772661822</v>
+      </c>
+      <c r="D91">
+        <v>0.02569790901425535</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01129688214073042</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001026973499236749</v>
+      </c>
+      <c r="C92">
+        <v>0.1355952224802839</v>
+      </c>
+      <c r="D92">
+        <v>-0.3258555073559044</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002966524016554571</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005021541343113316</v>
+      </c>
+      <c r="C93">
+        <v>0.1049561294687075</v>
+      </c>
+      <c r="D93">
+        <v>-0.3009654196944356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0002358522088433407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02160536335835471</v>
+      </c>
+      <c r="C94">
+        <v>0.1445147997247087</v>
+      </c>
+      <c r="D94">
+        <v>0.0515890231850083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.003302010863766267</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01660893652387463</v>
+      </c>
+      <c r="C95">
+        <v>0.12169959379898</v>
+      </c>
+      <c r="D95">
+        <v>0.06398321776162555</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0004153951890537966</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03664728044239407</v>
+      </c>
+      <c r="C97">
+        <v>0.2231804878572266</v>
+      </c>
+      <c r="D97">
+        <v>-0.002419500693975405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.004071937662480052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03785669740570759</v>
+      </c>
+      <c r="C98">
+        <v>0.2528701711231736</v>
+      </c>
+      <c r="D98">
+        <v>0.04275030986924858</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9852819138258878</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9814690001811193</v>
+      </c>
+      <c r="C99">
+        <v>-0.1194174496898688</v>
+      </c>
+      <c r="D99">
+        <v>-0.02416342412018608</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.00114973246802179</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002732517983557484</v>
+      </c>
+      <c r="C101">
+        <v>0.04943243078697426</v>
+      </c>
+      <c r="D101">
+        <v>0.008200435899721243</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
